--- a/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
+++ b/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\Ibenter加盟店_バック金額計上\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\Ibenter加盟店_バック金額計上\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0625E3DB-3716-4971-8FA4-482C3D16FF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B96E45E-C2E8-42E0-A6AA-A6118C6CAD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>7月分</t>
     <rPh sb="1" eb="3">
@@ -104,6 +104,13 @@
   </si>
   <si>
     <t>2月分</t>
+    <rPh sb="1" eb="3">
+      <t>ガツブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3月分</t>
     <rPh sb="1" eb="3">
       <t>ガツブン</t>
     </rPh>
@@ -216,8 +223,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}" name="テーブル1" displayName="テーブル1" ref="A1:E12" totalsRowCount="1">
-  <autoFilter ref="A1:E11" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}" name="テーブル1" displayName="テーブル1" ref="A1:E13" totalsRowCount="1">
+  <autoFilter ref="A1:E12" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F50A2FF0-141F-4356-A1FE-4AD8770A9D2C}" name="年度" totalsRowLabel="集計"/>
     <tableColumn id="2" xr3:uid="{20FA4071-991E-486B-812B-457031E0B883}" name="日付"/>
@@ -526,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE0591B-DC01-4E4A-85D2-733BFBACDA57}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -656,21 +663,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14500</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f>SUBTOTAL(109,テーブル1[件数])</f>
-        <v>9</v>
-      </c>
-      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
         <f>SUBTOTAL(109,テーブル1[バック金額])</f>
-        <v>136000</v>
-      </c>
-      <c r="E12">
+        <v>150500</v>
+      </c>
+      <c r="E13">
         <f>SUBTOTAL(109,テーブル1[送客数])</f>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
+++ b/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\Ibenter加盟店_バック金額計上\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B96E45E-C2E8-42E0-A6AA-A6118C6CAD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E50055B-21E1-425B-9C89-2EA5722E0229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>7月分</t>
     <rPh sb="1" eb="3">
@@ -111,6 +111,13 @@
   </si>
   <si>
     <t>3月分</t>
+    <rPh sb="1" eb="3">
+      <t>ガツブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5月分</t>
     <rPh sb="1" eb="3">
       <t>ガツブン</t>
     </rPh>
@@ -536,15 +543,15 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -561,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -578,7 +585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -595,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -612,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -629,7 +636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -646,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -663,7 +670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -680,21 +687,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="C13">
         <f>SUBTOTAL(109,テーブル1[件数])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
         <f>SUBTOTAL(109,テーブル1[バック金額])</f>
-        <v>150500</v>
+        <v>156500</v>
       </c>
       <c r="E13">
         <f>SUBTOTAL(109,テーブル1[送客数])</f>
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
+++ b/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\Ibenter加盟店_バック金額計上\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E50055B-21E1-425B-9C89-2EA5722E0229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA796FF-8A68-4ACA-8121-AD0DF9186A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>7月分</t>
     <rPh sb="1" eb="3">
@@ -230,8 +230,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}" name="テーブル1" displayName="テーブル1" ref="A1:E13" totalsRowCount="1">
-  <autoFilter ref="A1:E12" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}" name="テーブル1" displayName="テーブル1" ref="A1:E14" totalsRowCount="1">
+  <autoFilter ref="A1:E13" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F50A2FF0-141F-4356-A1FE-4AD8770A9D2C}" name="年度" totalsRowLabel="集計"/>
     <tableColumn id="2" xr3:uid="{20FA4071-991E-486B-812B-457031E0B883}" name="日付"/>
@@ -540,18 +540,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE0591B-DC01-4E4A-85D2-733BFBACDA57}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -568,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -585,7 +585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -636,7 +636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -687,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -704,21 +704,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22000</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>SUBTOTAL(109,テーブル1[件数])</f>
-        <v>11</v>
-      </c>
-      <c r="D13" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <f>SUBTOTAL(109,テーブル1[バック金額])</f>
-        <v>156500</v>
-      </c>
-      <c r="E13">
+        <v>178500</v>
+      </c>
+      <c r="E14">
         <f>SUBTOTAL(109,テーブル1[送客数])</f>
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
+++ b/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\Ibenter加盟店_バック金額計上\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA796FF-8A68-4ACA-8121-AD0DF9186A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0430D56-B6A2-4FED-B28A-386F468AE9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
+    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>7月分</t>
     <rPh sb="1" eb="3">
@@ -543,7 +543,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -721,21 +721,38 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>2023</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>14500</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="C14">
         <f>SUBTOTAL(109,テーブル1[件数])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2">
         <f>SUBTOTAL(109,テーブル1[バック金額])</f>
-        <v>178500</v>
+        <v>193000</v>
       </c>
       <c r="E14">
         <f>SUBTOTAL(109,テーブル1[送客数])</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
+++ b/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\Ibenter加盟店_バック金額計上\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0430D56-B6A2-4FED-B28A-386F468AE9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6CFE28-F77B-4C68-8B2C-93E2F38B0DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>7月分</t>
     <rPh sb="1" eb="3">
@@ -119,6 +119,13 @@
   <si>
     <t>5月分</t>
     <rPh sb="1" eb="3">
+      <t>ガツブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10月分</t>
+    <rPh sb="2" eb="4">
       <t>ガツブン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -543,15 +550,15 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -568,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -585,7 +592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -602,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -619,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -636,7 +643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -653,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -670,7 +677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -687,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -704,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -721,7 +728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -738,21 +745,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="C14">
         <f>SUBTOTAL(109,テーブル1[件数])</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <f>SUBTOTAL(109,テーブル1[バック金額])</f>
-        <v>193000</v>
+        <v>208000</v>
       </c>
       <c r="E14">
         <f>SUBTOTAL(109,テーブル1[送客数])</f>
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
+++ b/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\Ibenter加盟店_バック金額計上\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6CFE28-F77B-4C68-8B2C-93E2F38B0DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB2CB8-4A68-4C65-931F-231FE13F6CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>7月分</t>
     <rPh sb="1" eb="3">
@@ -125,6 +125,13 @@
   </si>
   <si>
     <t>10月分</t>
+    <rPh sb="2" eb="4">
+      <t>ガツブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11月分</t>
     <rPh sb="2" eb="4">
       <t>ガツブン</t>
     </rPh>
@@ -237,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}" name="テーブル1" displayName="テーブル1" ref="A1:E14" totalsRowCount="1">
-  <autoFilter ref="A1:E13" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}" name="テーブル1" displayName="テーブル1" ref="A1:E16" totalsRowCount="1">
+  <autoFilter ref="A1:E15" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F50A2FF0-141F-4356-A1FE-4AD8770A9D2C}" name="年度" totalsRowLabel="集計"/>
     <tableColumn id="2" xr3:uid="{20FA4071-991E-486B-812B-457031E0B883}" name="日付"/>
@@ -547,18 +554,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE0591B-DC01-4E4A-85D2-733BFBACDA57}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -575,7 +582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -592,7 +599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -609,7 +616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -626,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -643,7 +650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -660,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -677,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -694,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -711,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -728,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -745,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -762,21 +769,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>29000</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <f>SUBTOTAL(109,テーブル1[件数])</f>
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
         <f>SUBTOTAL(109,テーブル1[バック金額])</f>
-        <v>208000</v>
-      </c>
-      <c r="E14">
+        <v>237000</v>
+      </c>
+      <c r="E16">
         <f>SUBTOTAL(109,テーブル1[送客数])</f>
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
+++ b/Ibenter加盟店_バック金額計上/たみあん　未受け取りバック.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\Ibenter加盟店_バック金額計上\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB2CB8-4A68-4C65-931F-231FE13F6CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38851DE9-1FF0-48FE-8CEE-9DE58F403090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{982388D9-DA95-4FE7-B693-6F9F20C9D75D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>7月分</t>
     <rPh sb="1" eb="3">
@@ -244,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}" name="テーブル1" displayName="テーブル1" ref="A1:E16" totalsRowCount="1">
-  <autoFilter ref="A1:E15" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}" name="テーブル1" displayName="テーブル1" ref="A1:E22" totalsRowCount="1">
+  <autoFilter ref="A1:E21" xr:uid="{552D7C7C-5F7C-4724-9263-DD2B7BA4DB34}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F50A2FF0-141F-4356-A1FE-4AD8770A9D2C}" name="年度" totalsRowLabel="集計"/>
     <tableColumn id="2" xr3:uid="{20FA4071-991E-486B-812B-457031E0B883}" name="日付"/>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE0591B-DC01-4E4A-85D2-733BFBACDA57}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -786,21 +786,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C22">
         <f>SUBTOTAL(109,テーブル1[件数])</f>
-        <v>18</v>
-      </c>
-      <c r="D16" s="2">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2">
         <f>SUBTOTAL(109,テーブル1[バック金額])</f>
-        <v>237000</v>
-      </c>
-      <c r="E16">
+        <v>246000</v>
+      </c>
+      <c r="E22">
         <f>SUBTOTAL(109,テーブル1[送客数])</f>
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
